--- a/DRGs_Analytical_Document_DataMat_Spec_Checked_20200326_updated.xlsx
+++ b/DRGs_Analytical_Document_DataMat_Spec_Checked_20200326_updated.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="DATA_MART" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="454">
   <si>
     <t>序号</t>
   </si>
@@ -1777,18 +1777,6 @@
     <t>统计别(院/科/医师)</t>
   </si>
   <si>
-    <t>ICD10码</t>
-  </si>
-  <si>
-    <t>FK, ref Icd10_Dim.icd10_code</t>
-  </si>
-  <si>
-    <t>ICD9码</t>
-  </si>
-  <si>
-    <t>FK, ref Icd9_Dim.icd9_code</t>
-  </si>
-  <si>
     <t>Code_Dim</t>
   </si>
   <si>
@@ -1801,9 +1789,6 @@
     <t>code_desc</t>
   </si>
   <si>
-    <t>疾病码</t>
-  </si>
-  <si>
     <t>FK, ref Code_Dim.code_no</t>
   </si>
   <si>
@@ -1813,12 +1798,6 @@
     <t>科别名</t>
   </si>
   <si>
-    <t>疑难重症(CODE_DIM)</t>
-  </si>
-  <si>
-    <t>关键医疗技术(CODE_DIM)</t>
-  </si>
-  <si>
     <t>专科重点疾病(CODE_DIM)</t>
   </si>
   <si>
@@ -1834,176 +1813,157 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>关键医疗技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要疾病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专科重点疾病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(服务、质量、...)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务及质量指标标杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opers_DeptKpiBench_FACT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opers_DeptOperationBench_FACT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opers_DeptCriticalBench_FACT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opers_DeptKeyMedTechBench_FACT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病种统计标杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗服务能力-手术及操作标杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点 疾病 与 重点 手术 及 操作标杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑难 重症 标杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键医疗技术标杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要疾病标杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专科重点疾病标杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务及质量指标</t>
+  </si>
+  <si>
+    <t>Opers_DeptKpi_FACT</t>
+  </si>
+  <si>
+    <t>住院总费用</t>
+  </si>
+  <si>
+    <t>医院等级</t>
+  </si>
+  <si>
+    <t>hosp_level</t>
+  </si>
+  <si>
+    <t>百分位等级(100表示不区分百分位等级)</t>
+  </si>
+  <si>
+    <t>percent_rank</t>
+  </si>
+  <si>
+    <t>Opers_DeptMajorDiseaseBench_FACT</t>
+  </si>
+  <si>
+    <t>Opers_DeptSpeKeyDiseaseBench_FACT</t>
+  </si>
+  <si>
+    <t>病种统计</t>
+  </si>
+  <si>
+    <t>code_subtype_desc</t>
+  </si>
+  <si>
+    <t>code_type_desc</t>
+  </si>
+  <si>
+    <t>指标类</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>index_class</t>
+  </si>
+  <si>
+    <t>Opers_DeptDisease_FACT</t>
+  </si>
+  <si>
+    <t>Opers_DeptDiseaseBench_FACT</t>
+  </si>
+  <si>
+    <t>FK, ref Dept_Dim.dept_code</t>
+  </si>
+  <si>
+    <t>Opers_DeptOperation_FACT</t>
+  </si>
+  <si>
+    <t>Opers_DeptKeyOperation_FACT</t>
+  </si>
+  <si>
+    <t>Opers_DeptKeyMedTech_FACT</t>
+  </si>
+  <si>
+    <t>Opers_DeptCritical_FACT</t>
+  </si>
+  <si>
+    <t>Opers_DeptMajorDisease_FACT</t>
+  </si>
+  <si>
+    <t>Opers_DeptSpeKeyDisease_FACT</t>
+  </si>
+  <si>
     <t xml:space="preserve">疑难 重症 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键医疗技术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要疾病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>专科重点疾病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键医疗技术(CODE_DIM)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要疾病(CODE_DIM)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(服务、质量、...)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务及质量指标标杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptKpiBench_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptDisease_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptDiseaseBench_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptOperation_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptOperationBench_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptKeyOperation_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptKeyOpBench_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptCritical_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptCriticalBench_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptKeyMedTech_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptKeyMedTechBench_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptMajorDisease_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opers_DeptSpeKeyDisease_FACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>病种统计标杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗服务能力-手术及操作标杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重点 疾病 与 重点 手术 及 操作标杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑难 重症 标杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键医疗技术标杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要疾病标杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>专科重点疾病标杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>icd10_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务及质量指标</t>
-  </si>
-  <si>
-    <t>Opers_DeptKpi_FACT</t>
-  </si>
-  <si>
-    <t>住院总费用</t>
-  </si>
-  <si>
-    <t>医院等级</t>
-  </si>
-  <si>
-    <t>hosp_level</t>
-  </si>
-  <si>
-    <t>百分位等级(100表示不区分百分位等级)</t>
-  </si>
-  <si>
-    <t>percent_rank</t>
-  </si>
-  <si>
-    <t>Opers_DeptMajorDiseaseBench_FACT</t>
-  </si>
-  <si>
-    <t>Opers_DeptSpeKeyDiseaseBench_FACT</t>
-  </si>
-  <si>
-    <t>病种统计</t>
-  </si>
-  <si>
-    <t>code_subtype_desc</t>
-  </si>
-  <si>
-    <t>code_type_desc</t>
-  </si>
-  <si>
-    <t>指标类</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>index_class</t>
+  </si>
+  <si>
+    <t>Opers_DeptKeyOperationBench_FACT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2231,7 +2191,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="新細明體"/>
     </font>
   </fonts>
@@ -2387,7 +2359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2571,26 +2543,109 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2902,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2981,7 +3036,7 @@
         <v>12</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>13</v>
@@ -5954,1605 +6009,1748 @@
       <c r="A88" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="E88" s="59" t="s">
-        <v>460</v>
-      </c>
-      <c r="F88" s="5" t="s">
+      <c r="E88" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="F88" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H88" s="61" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="21">
       <c r="A89" s="17"/>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="E89" s="30" t="s">
-        <v>462</v>
-      </c>
-      <c r="F89" s="6" t="s">
+      <c r="E89" s="63" t="s">
+        <v>442</v>
+      </c>
+      <c r="F89" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H89" s="63" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="21">
       <c r="A90" s="17"/>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="E90" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90" s="7" t="s">
+      <c r="C90" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5">
-      <c r="C91" s="64"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63" t="s">
-        <v>424</v>
-      </c>
+      <c r="B91" s="64"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66" t="s">
+        <v>414</v>
+      </c>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
     </row>
     <row r="93" spans="1:17" ht="21">
       <c r="A93" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="B93" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B93" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="64"/>
     </row>
     <row r="94" spans="1:17" ht="21">
       <c r="A94" s="17"/>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="F94" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="G94" s="30" t="s">
-        <v>458</v>
-      </c>
+      <c r="C94" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="D94" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="E94" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="F94" s="63" t="s">
+        <v>439</v>
+      </c>
+      <c r="G94" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="H94" s="64"/>
     </row>
     <row r="95" spans="1:17" ht="21">
       <c r="A95" s="17"/>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="F95" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G95" s="29" t="s">
-        <v>40</v>
-      </c>
+      <c r="C95" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="F95" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" s="64"/>
     </row>
     <row r="96" spans="1:17" ht="16.5">
-      <c r="C96" s="64"/>
-    </row>
-    <row r="98" spans="1:7" ht="18.75">
+      <c r="B96" s="64"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="64"/>
+    </row>
+    <row r="98" spans="1:8" ht="18.75">
       <c r="A98" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B98" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="D98" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="E98" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="F98" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="G98" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="H98" s="61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="18.75">
+      <c r="A99" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B99" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E99" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F99" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G99" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="H99" s="33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="18.75">
+      <c r="A100" s="12"/>
+      <c r="B100" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="G100" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="H100" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="33">
+      <c r="A101" s="12"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="68"/>
+      <c r="E101" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="G101" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="H101" s="68"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="64"/>
+    </row>
+    <row r="103" spans="1:8" ht="34.5">
+      <c r="A103" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B103" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="D103" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E103" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="F103" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G103" s="61" t="s">
+        <v>396</v>
+      </c>
+      <c r="H103" s="64"/>
+    </row>
+    <row r="104" spans="1:8" ht="18.75">
+      <c r="A104" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B104" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D104" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="E104" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="F104" s="69" t="s">
+        <v>434</v>
+      </c>
+      <c r="G104" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="H104" s="64"/>
+    </row>
+    <row r="105" spans="1:8" ht="18.75">
+      <c r="A105" s="12"/>
+      <c r="B105" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="G105" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="H105" s="64"/>
+    </row>
+    <row r="106" spans="1:8" ht="33">
+      <c r="A106" s="12"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="F106" s="68"/>
+      <c r="G106" s="68"/>
+      <c r="H106" s="64"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="64"/>
+    </row>
+    <row r="108" spans="1:8" ht="18.75">
+      <c r="A108" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B108" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="D108" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="E108" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="F108" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="G108" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="H108" s="61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="18.75">
+      <c r="A109" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B109" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D109" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E109" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F109" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G109" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18.75">
+      <c r="A110" s="12"/>
+      <c r="B110" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="G110" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="H110" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="33">
+      <c r="A111" s="12"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="G111" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="H111" s="68"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="64"/>
+    </row>
+    <row r="113" spans="1:8" ht="34.5">
+      <c r="A113" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B113" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="D113" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E113" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="F113" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G113" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="H113" s="64"/>
+    </row>
+    <row r="114" spans="1:8" ht="18.75">
+      <c r="A114" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B114" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D114" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="F114" s="69" t="s">
+        <v>434</v>
+      </c>
+      <c r="G114" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="H114" s="64"/>
+    </row>
+    <row r="115" spans="1:8" ht="18.75">
+      <c r="A115" s="12"/>
+      <c r="B115" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="G115" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="H115" s="64"/>
+    </row>
+    <row r="116" spans="1:8" ht="33">
+      <c r="A116" s="12"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
+      <c r="H116" s="64"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="64"/>
+    </row>
+    <row r="118" spans="1:8" ht="18.75">
+      <c r="A118" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B118" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="D118" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="E118" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="F118" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="G118" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="H118" s="61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="18.75">
+      <c r="A119" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B119" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D119" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E119" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F119" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G119" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="H119" s="33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="18.75">
+      <c r="A120" s="12"/>
+      <c r="B120" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E120" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="G120" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="H120" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="33">
+      <c r="A121" s="12"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="G121" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="H121" s="68"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+    </row>
+    <row r="123" spans="1:8" ht="34.5">
+      <c r="A123" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B123" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="D123" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E123" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="F123" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G123" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="H123" s="64"/>
+    </row>
+    <row r="124" spans="1:8" ht="18.75">
+      <c r="A124" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B124" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D124" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="E124" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="F124" s="69" t="s">
+        <v>434</v>
+      </c>
+      <c r="G124" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="H124" s="64"/>
+    </row>
+    <row r="125" spans="1:8" ht="18.75">
+      <c r="A125" s="12"/>
+      <c r="B125" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="E125" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="F125" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="G125" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="H125" s="64"/>
+    </row>
+    <row r="126" spans="1:8" ht="33">
+      <c r="A126" s="12"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="68"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="64"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="64"/>
+      <c r="G127" s="64"/>
+      <c r="H127" s="64"/>
+    </row>
+    <row r="128" spans="1:8" ht="18.75">
+      <c r="A128" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B128" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="D128" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="E128" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="F128" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="G128" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="H128" s="61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="18.75">
+      <c r="A129" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B129" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D129" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E129" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F129" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G129" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="H129" s="33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="18.75">
+      <c r="A130" s="12"/>
+      <c r="B130" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="G130" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="H130" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="33">
+      <c r="A131" s="12"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" s="68"/>
+      <c r="E131" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="F131" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="G131" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="H131" s="68"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="64"/>
+      <c r="F132" s="64"/>
+      <c r="G132" s="64"/>
+      <c r="H132" s="64"/>
+    </row>
+    <row r="133" spans="1:8" ht="34.5">
+      <c r="A133" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B133" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="D133" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E133" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="F133" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G133" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="H133" s="64"/>
+    </row>
+    <row r="134" spans="1:8" ht="18.75">
+      <c r="A134" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B134" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D134" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="E134" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="F134" s="69" t="s">
+        <v>434</v>
+      </c>
+      <c r="G134" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="H134" s="64"/>
+    </row>
+    <row r="135" spans="1:8" ht="18.75">
+      <c r="A135" s="12"/>
+      <c r="B135" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="F135" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="G135" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="H135" s="64"/>
+    </row>
+    <row r="136" spans="1:8" ht="33">
+      <c r="A136" s="12"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="68"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
+      <c r="H136" s="64"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="64"/>
+      <c r="F137" s="64"/>
+      <c r="G137" s="64"/>
+      <c r="H137" s="64"/>
+    </row>
+    <row r="138" spans="1:8" ht="18.75">
+      <c r="A138" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B138" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C138" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E98" s="5" t="s">
+      <c r="D138" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="E138" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="F138" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="G138" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="H138" s="61" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18.75">
-      <c r="A99" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="B99" s="6" t="s">
+    <row r="139" spans="1:8" ht="18.75">
+      <c r="A139" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B139" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C139" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D139" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E139" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="F139" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="G139" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="H139" s="33" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="18.75">
-      <c r="A100" s="12"/>
-      <c r="B100" s="6" t="s">
+    <row r="140" spans="1:8" ht="18.75">
+      <c r="A140" s="12"/>
+      <c r="B140" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E100" s="7" t="s">
+      <c r="C140" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F140" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G140" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="33">
-      <c r="A101" s="12"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10" t="s">
+      <c r="H140" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="33">
+      <c r="A141" s="12"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D141" s="68"/>
+      <c r="E141" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="F141" s="68" t="s">
         <v>382</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="G141" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="G101" s="10"/>
-    </row>
-    <row r="103" spans="1:7" ht="34.5">
-      <c r="A103" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="B103" s="2" t="s">
+      <c r="H141" s="68"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="64"/>
+      <c r="G142" s="64"/>
+      <c r="H142" s="64"/>
+    </row>
+    <row r="143" spans="1:8" ht="34.5">
+      <c r="A143" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B143" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C143" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="D103" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="E103" s="5" t="s">
+      <c r="D143" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E143" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="F103" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="G103" s="5" t="s">
+      <c r="F143" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G143" s="61" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="18.75">
-      <c r="A104" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="H143" s="64"/>
+    </row>
+    <row r="144" spans="1:8" ht="18.75">
+      <c r="A144" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B144" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C144" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="D104" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="E104" s="13" t="s">
+      <c r="D144" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="E144" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F104" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="G104" s="7" t="s">
+      <c r="F144" s="69" t="s">
+        <v>434</v>
+      </c>
+      <c r="G144" s="33" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="18.75">
-      <c r="A105" s="12"/>
-      <c r="B105" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F105" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="33">
-      <c r="A106" s="12"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="108" spans="1:7" ht="18.75">
-      <c r="A108" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="18.75">
-      <c r="A109" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="18.75">
-      <c r="A110" s="12"/>
-      <c r="B110" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="49.5">
-      <c r="A111" s="12"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="113" spans="1:9" ht="34.5">
-      <c r="A113" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D113" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F113" s="59" t="s">
-        <v>400</v>
-      </c>
-      <c r="G113" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="18.75">
-      <c r="A114" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F114" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="G114" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="18.75">
-      <c r="A115" s="12"/>
-      <c r="B115" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F115" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="G115" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="49.5">
-      <c r="A116" s="12"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F116" s="61" t="s">
-        <v>401</v>
-      </c>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="118" spans="1:9" ht="18.75">
-      <c r="A118" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="18.75">
-      <c r="A119" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="18.75">
-      <c r="A120" s="12"/>
-      <c r="B120" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="49.5">
-      <c r="A121" s="12"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="I121" s="10"/>
-    </row>
-    <row r="123" spans="1:9" ht="34.5">
-      <c r="A123" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D123" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G123" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="18.75">
-      <c r="A124" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G124" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="18.75">
-      <c r="A125" s="12"/>
-      <c r="B125" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D125" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G125" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="33">
-      <c r="A126" s="12"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="128" spans="1:9" ht="18.75">
-      <c r="A128" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="18.75">
-      <c r="A129" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="18.75">
-      <c r="A130" s="12"/>
-      <c r="B130" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="49.5">
-      <c r="A131" s="12"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="I131" s="10"/>
-    </row>
-    <row r="133" spans="1:9" ht="34.5">
-      <c r="A133" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D133" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G133" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="18.75">
-      <c r="A134" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G134" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="18.75">
-      <c r="A135" s="12"/>
-      <c r="B135" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D135" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G135" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="33">
-      <c r="A136" s="12"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-    </row>
-    <row r="138" spans="1:9" ht="34.5">
-      <c r="A138" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="18.75">
-      <c r="A139" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="18.75">
-      <c r="A140" s="12"/>
-      <c r="B140" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="33">
-      <c r="A141" s="12"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H141" s="10"/>
-    </row>
-    <row r="143" spans="1:9" ht="34.5">
-      <c r="A143" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D143" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G143" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="H143" s="59" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="18.75">
-      <c r="A144" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G144" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="H144" s="29" t="s">
-        <v>397</v>
-      </c>
+      <c r="H144" s="64"/>
     </row>
     <row r="145" spans="1:8" ht="18.75">
       <c r="A145" s="12"/>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D145" s="29" t="s">
+      <c r="C145" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="E145" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G145" s="29" t="s">
+      <c r="E145" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F145" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="H145" s="29" t="s">
+      <c r="G145" s="33" t="s">
         <v>373</v>
       </c>
+      <c r="H145" s="64"/>
     </row>
     <row r="146" spans="1:8" ht="33">
       <c r="A146" s="12"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F146" s="10" t="s">
+      <c r="B146" s="68"/>
+      <c r="C146" s="68"/>
+      <c r="D146" s="68"/>
+      <c r="E146" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-    </row>
-    <row r="148" spans="1:8" ht="34.5">
+      <c r="F146" s="68"/>
+      <c r="G146" s="68"/>
+      <c r="H146" s="64"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="64"/>
+      <c r="F147" s="64"/>
+      <c r="G147" s="64"/>
+      <c r="H147" s="64"/>
+    </row>
+    <row r="148" spans="1:8" ht="18.75">
       <c r="A148" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="B148" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B148" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="E148" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G148" s="5" t="s">
+      <c r="E148" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="F148" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="G148" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="H148" s="61" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="18.75">
       <c r="A149" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="B149" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B149" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D149" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="E149" s="13" t="s">
+      <c r="D149" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E149" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="F149" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G149" s="7" t="s">
+      <c r="F149" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G149" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="H149" s="7" t="s">
+      <c r="H149" s="33" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="18.75">
       <c r="A150" s="12"/>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F150" s="7" t="s">
+      <c r="C150" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F150" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="G150" s="7" t="s">
+      <c r="G150" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="H150" s="7" t="s">
+      <c r="H150" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="33">
       <c r="A151" s="12"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10" t="s">
+      <c r="B151" s="68"/>
+      <c r="C151" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10" t="s">
+      <c r="D151" s="68"/>
+      <c r="E151" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F151" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="G151" s="10" t="s">
+      <c r="F151" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="G151" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="H151" s="10"/>
+      <c r="H151" s="68"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="B152" s="64"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="64"/>
+      <c r="F152" s="64"/>
+      <c r="G152" s="64"/>
+      <c r="H152" s="64"/>
     </row>
     <row r="153" spans="1:8" ht="34.5">
       <c r="A153" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="B153" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B153" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="D153" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="E153" s="62" t="s">
-        <v>413</v>
-      </c>
-      <c r="F153" s="5" t="s">
+      <c r="D153" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E153" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="G153" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="H153" s="5" t="s">
+      <c r="F153" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G153" s="61" t="s">
         <v>396</v>
       </c>
+      <c r="H153" s="64"/>
     </row>
     <row r="154" spans="1:8" ht="18.75">
       <c r="A154" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="B154" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B154" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="D154" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F154" s="7" t="s">
+      <c r="D154" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="E154" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="G154" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="H154" s="7" t="s">
+      <c r="F154" s="69" t="s">
+        <v>434</v>
+      </c>
+      <c r="G154" s="33" t="s">
         <v>397</v>
       </c>
+      <c r="H154" s="64"/>
     </row>
     <row r="155" spans="1:8" ht="18.75">
       <c r="A155" s="12"/>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D155" s="29" t="s">
+      <c r="C155" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="F155" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G155" s="29" t="s">
+      <c r="F155" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="H155" s="7" t="s">
+      <c r="G155" s="33" t="s">
         <v>373</v>
       </c>
+      <c r="H155" s="64"/>
     </row>
     <row r="156" spans="1:8" ht="33">
       <c r="A156" s="12"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F156" s="10" t="s">
+      <c r="B156" s="68"/>
+      <c r="C156" s="68"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
+      <c r="F156" s="68"/>
+      <c r="G156" s="68"/>
+      <c r="H156" s="64"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="B157" s="64"/>
+      <c r="C157" s="64"/>
+      <c r="D157" s="64"/>
+      <c r="E157" s="64"/>
+      <c r="F157" s="64"/>
+      <c r="G157" s="64"/>
+      <c r="H157" s="64"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="B158" s="64"/>
+      <c r="C158" s="64"/>
+      <c r="D158" s="64"/>
+      <c r="E158" s="64"/>
+      <c r="F158" s="64"/>
+      <c r="G158" s="64"/>
+      <c r="H158" s="64"/>
     </row>
     <row r="159" spans="1:8" ht="18.75">
       <c r="A159" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="B159" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B159" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="E159" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="H159" s="5" t="s">
+      <c r="E159" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="F159" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="G159" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="H159" s="61" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="18.75">
       <c r="A160" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="B160" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B160" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D160" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="E160" s="13" t="s">
+      <c r="D160" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E160" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="F160" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H160" s="7" t="s">
+      <c r="F160" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G160" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="H160" s="33" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="18.75">
       <c r="A161" s="12"/>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F161" s="7" t="s">
+      <c r="C161" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D161" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E161" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F161" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="G161" s="7" t="s">
+      <c r="G161" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="H161" s="7" t="s">
+      <c r="H161" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="33">
       <c r="A162" s="12"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10" t="s">
+      <c r="B162" s="68"/>
+      <c r="C162" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10" t="s">
+      <c r="D162" s="68"/>
+      <c r="E162" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F162" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H162" s="10"/>
+      <c r="F162" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="G162" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="H162" s="68"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="B163" s="64"/>
+      <c r="C163" s="64"/>
+      <c r="D163" s="64"/>
+      <c r="E163" s="64"/>
+      <c r="F163" s="64"/>
+      <c r="G163" s="64"/>
+      <c r="H163" s="64"/>
     </row>
     <row r="164" spans="1:8" ht="34.5">
       <c r="A164" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="B164" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B164" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="D164" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="E164" s="62" t="s">
-        <v>423</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G164" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="H164" s="5" t="s">
+      <c r="D164" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E164" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="F164" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G164" s="61" t="s">
         <v>396</v>
       </c>
+      <c r="H164" s="64"/>
     </row>
     <row r="165" spans="1:8" ht="18.75">
       <c r="A165" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B165" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B165" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C165" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="D165" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G165" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="H165" s="7" t="s">
+      <c r="D165" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="E165" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="F165" s="69" t="s">
+        <v>434</v>
+      </c>
+      <c r="G165" s="33" t="s">
         <v>397</v>
       </c>
+      <c r="H165" s="64"/>
     </row>
     <row r="166" spans="1:8" ht="18.75">
       <c r="A166" s="12"/>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D166" s="29" t="s">
+      <c r="C166" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E166" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="F166" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G166" s="29" t="s">
+      <c r="F166" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="H166" s="7" t="s">
+      <c r="G166" s="33" t="s">
         <v>373</v>
       </c>
+      <c r="H166" s="64"/>
     </row>
     <row r="167" spans="1:8" ht="33">
       <c r="A167" s="12"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F167" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
+      <c r="B167" s="68"/>
+      <c r="C167" s="68"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="F167" s="68"/>
+      <c r="G167" s="68"/>
+      <c r="H167" s="64"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="B168" s="64"/>
+      <c r="C168" s="64"/>
+      <c r="D168" s="64"/>
+      <c r="E168" s="64"/>
+      <c r="F168" s="64"/>
+      <c r="G168" s="64"/>
+      <c r="H168" s="64"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="B169" s="64"/>
+      <c r="C169" s="64"/>
+      <c r="D169" s="64"/>
+      <c r="E169" s="64"/>
+      <c r="F169" s="64"/>
+      <c r="G169" s="64"/>
+      <c r="H169" s="64"/>
     </row>
     <row r="170" spans="1:8" ht="34.5">
       <c r="A170" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="B170" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B170" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="E170" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="H170" s="5" t="s">
+      <c r="E170" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="F170" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="G170" s="61" t="s">
         <v>380</v>
       </c>
+      <c r="H170" s="64"/>
     </row>
     <row r="171" spans="1:8" ht="18.75">
       <c r="A171" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="B171" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B171" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C171" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D171" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="E171" s="13" t="s">
+      <c r="D171" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E171" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="F171" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H171" s="7" t="s">
+      <c r="F171" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="G171" s="33" t="s">
         <v>394</v>
       </c>
+      <c r="H171" s="64"/>
     </row>
     <row r="172" spans="1:8" ht="18.75">
       <c r="A172" s="12"/>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F172" s="7" t="s">
+      <c r="C172" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E172" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F172" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="G172" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="G172" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H172" s="64"/>
     </row>
     <row r="173" spans="1:8" ht="33">
       <c r="A173" s="12"/>
-      <c r="B173" s="10"/>
-      <c r="C173" s="10" t="s">
+      <c r="B173" s="68"/>
+      <c r="C173" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10" t="s">
+      <c r="D173" s="68"/>
+      <c r="E173" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F173" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="G173" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H173" s="10"/>
+      <c r="F173" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="G173" s="68"/>
+      <c r="H173" s="64"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="B174" s="64"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="64"/>
+      <c r="E174" s="64"/>
+      <c r="F174" s="64"/>
+      <c r="G174" s="64"/>
+      <c r="H174" s="64"/>
     </row>
     <row r="175" spans="1:8" ht="34.5">
       <c r="A175" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B175" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B175" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="D175" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="E175" s="62" t="s">
-        <v>414</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G175" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="H175" s="5" t="s">
+      <c r="D175" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E175" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="F175" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G175" s="61" t="s">
         <v>396</v>
       </c>
+      <c r="H175" s="64"/>
     </row>
     <row r="176" spans="1:8" ht="18.75">
       <c r="A176" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="B176" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B176" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="D176" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G176" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="H176" s="7" t="s">
+      <c r="D176" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="E176" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="F176" s="69" t="s">
+        <v>434</v>
+      </c>
+      <c r="G176" s="33" t="s">
         <v>397</v>
       </c>
+      <c r="H176" s="64"/>
     </row>
     <row r="177" spans="1:8" ht="18.75">
       <c r="A177" s="12"/>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D177" s="29" t="s">
+      <c r="C177" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E177" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="F177" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G177" s="29" t="s">
+      <c r="F177" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="H177" s="7" t="s">
+      <c r="G177" s="33" t="s">
         <v>373</v>
       </c>
+      <c r="H177" s="64"/>
     </row>
     <row r="178" spans="1:8" ht="33">
       <c r="A178" s="12"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F178" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="G178" s="10"/>
-      <c r="H178" s="10"/>
+      <c r="B178" s="68"/>
+      <c r="C178" s="68"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="F178" s="68"/>
+      <c r="G178" s="68"/>
+      <c r="H178" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G108:G111">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118:G121">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123:E126">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G159:G162">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164:E167">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128:G131">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133:E136">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
